--- a/backend/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>fda38cb2-1e0e-4fc6-abfb-ec9f31cf9009</t>
+    <t>b2c6df1d-97e4-4f14-8acd-0fe6f4ffe02d</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>b2c6df1d-97e4-4f14-8acd-0fe6f4ffe02d</t>
+    <t>49bd5f22-866f-489d-8e78-dce31bc19ee4</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>49bd5f22-866f-489d-8e78-dce31bc19ee4</t>
+    <t>d17b3462-b931-4697-a318-6e9e45d2ade5</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>d17b3462-b931-4697-a318-6e9e45d2ade5</t>
+    <t>3d488b47-7a7f-416f-97eb-71ad3dcaa053</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>3d488b47-7a7f-416f-97eb-71ad3dcaa053</t>
+    <t>8c0ab8f1-7b6b-49fb-bf98-3bf5812462ff</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>8c0ab8f1-7b6b-49fb-bf98-3bf5812462ff</t>
+    <t>c3dd053c-5d03-4c99-aa13-0accf3065c47</t>
   </si>
   <si>
     <t>APERIBÉ</t>
